--- a/biology/Médecine/Pierre_Roussel_(médecin)/Pierre_Roussel_(médecin).xlsx
+++ b/biology/Médecine/Pierre_Roussel_(médecin)/Pierre_Roussel_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Roussel_(m%C3%A9decin)</t>
+          <t>Pierre_Roussel_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Roussel, né le 29 septembre 1742 à Ax-les-Thermes et mort le 19 septembre 1802 à Thiville près de Châteaudun[1], est un médecin et journaliste français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Roussel, né le 29 septembre 1742 à Ax-les-Thermes et mort le 19 septembre 1802 à Thiville près de Châteaudun, est un médecin et journaliste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Roussel_(m%C3%A9decin)</t>
+          <t>Pierre_Roussel_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son acte de décès précise qu'il est membre associé de l'Institut de France[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son acte de décès précise qu'il est membre associé de l'Institut de France.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Roussel_(m%C3%A9decin)</t>
+          <t>Pierre_Roussel_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Système physique et moral de la femme ou Tableau philosophique de la constitution, de l’état organique, du tempérament, des mœurs et des fonctions propres au sexe, Paris, 1775
 Système physique et moral de la femme, suivi du système physique et moral de l’homme, et d’un fragment sur la sensibilité, 1805–1813 — « Précédé par l'éloge historique de l'auteur par Jean-Louis Alibert ».
